--- a/电力系统脆弱性研究/指标及权重分配/index.xlsx
+++ b/电力系统脆弱性研究/指标及权重分配/index.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>状态指标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,6 +30,34 @@
   </si>
   <si>
     <t>综合指标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概率盒-D-S证据理论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合指标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息增益法确定权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息增益值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index1概率值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index2概率值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权重</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -73,8 +101,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -355,371 +386,1065 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0.16661979727990303</v>
       </c>
       <c r="B1">
         <v>0.15719367212908153</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1">
         <f>(A1*B1)/((A1*B1)+(1-A1)*(1-B1))</f>
         <v>3.5949310383642227E-2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1">
+        <f>0.5*A1+0.5*B1</f>
+        <v>0.16190673470449229</v>
+      </c>
+      <c r="H1">
+        <f>A1/9.71485262</f>
+        <v>1.7151037056072502E-2</v>
+      </c>
+      <c r="I1">
+        <f>B1/11.31686</f>
+        <v>1.3890219736665606E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.18205144540755275</v>
       </c>
       <c r="B2">
         <v>0.53787081295599437</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <f t="shared" ref="C2:C29" si="0">(A2*B2)/((A2*B2)+(1-A2)*(1-B2))</f>
         <v>0.20575003823175125</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <f t="shared" ref="D2:D29" si="1">0.5*A2+0.5*B2</f>
+        <v>0.35996112918177359</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H29" si="2">A2/9.71485262</f>
+        <v>1.8739496369997711E-2</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I29" si="3">B2/11.31686</f>
+        <v>4.7528273121342349E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.48623767280502772</v>
       </c>
       <c r="B3">
         <v>0.52806080073923134</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <f t="shared" si="0"/>
         <v>0.51432059496375815</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <f t="shared" si="1"/>
+        <v>0.50714923677212953</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="2"/>
+        <v>5.0050957212053694E-2</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="3"/>
+        <v>4.6661423817139322E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.52920530035601976</v>
       </c>
       <c r="B4">
         <v>0.58052098095190563</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <f t="shared" si="0"/>
         <v>0.60870375317768666</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>0.55486314065396269</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>5.4473837232130833E-2</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>5.1297001195729698E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.15897045566796833</v>
       </c>
       <c r="B5">
         <v>0.31808106859720953</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <f t="shared" si="0"/>
         <v>8.1024125307071593E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>0.23852576213258891</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>1.636365078155641E-2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>2.8106830746091188E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.14905735978352563</v>
       </c>
       <c r="B6">
         <v>0.61808866033644327</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <f t="shared" si="0"/>
         <v>0.22087576782741017</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>0.38357301005998445</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>1.534324457755136E-2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>5.4616621601437439E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.33408137377483915</v>
       </c>
       <c r="B7">
         <v>0.2623708300687938</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <f t="shared" si="0"/>
         <v>0.15142536014173547</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>0.29822610192181648</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>3.4388722798230069E-2</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>2.3184066080944168E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.49457313593568974</v>
       </c>
       <c r="B8">
         <v>0.47533172371866306</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>0.46992096654147564</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>0.4849524298271764</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>5.0908969521319382E-2</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>4.2002085712703266E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.17969938464815907</v>
       </c>
       <c r="B9">
         <v>0.33462857819850289</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>9.9238924275610443E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0.25716398142333097</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>1.8497386597323293E-2</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>2.9569030472984811E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.17843343158594213</v>
       </c>
       <c r="B10">
         <v>0.52716303495832417</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <f t="shared" si="0"/>
         <v>0.19493793485058428</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>0.35279823327213317</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>1.8367075504429231E-2</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>4.6582093881016834E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.16969231171584087</v>
       </c>
       <c r="B11">
         <v>0.31009725281294492</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <f t="shared" si="0"/>
         <v>8.4132855774670307E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>0.2398947822643929</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>1.7467306849976778E-2</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>2.7401350976591115E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.19403639534728004</v>
       </c>
       <c r="B12">
         <v>1.3616606789627565E-2</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <f t="shared" si="0"/>
         <v>3.3124546667673426E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>0.1038265010684538</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>1.9973169222126608E-2</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>1.2032142122132433E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.18803584625199479</v>
       </c>
       <c r="B13">
         <v>0.23575520203730035</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <f t="shared" si="0"/>
         <v>6.6675352506828559E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>0.21189552414464757</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>1.9355501684594243E-2</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>2.0832209821213688E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.21537970744409796</v>
       </c>
       <c r="B14">
         <v>0.24645496652038884</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <f t="shared" si="0"/>
         <v>8.2382557388381433E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>0.2309173369822434</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>2.2170146668071426E-2</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>2.1777680957473084E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.37588684330244948</v>
       </c>
       <c r="B15">
         <v>0.33819371995838193</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <f t="shared" si="0"/>
         <v>0.23534044137447632</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>0.35704028163041568</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>3.869197588531708E-2</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>2.9884059708998958E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.41692992652072081</v>
       </c>
       <c r="B16">
         <v>0.84529631735700028</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <f t="shared" si="0"/>
         <v>0.79621219839341228</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>0.6311131219388606</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>4.2916752608514692E-2</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>7.4693538433540776E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.24099589143635675</v>
       </c>
       <c r="B17">
         <v>0.23842168998139435</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <f t="shared" si="0"/>
         <v>9.0414907273667633E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>0.23970879070887555</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>2.4806952906338248E-2</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>2.1067830651028144E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.36929215411824173</v>
       </c>
       <c r="B18">
         <v>0.18530192024605308</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <f t="shared" si="0"/>
         <v>0.11752433743315756</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>0.27729703718214738</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>3.8013150437092448E-2</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>1.6373969479701354E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.28999999999999998</v>
       </c>
       <c r="B19">
         <v>0.51135717245297407</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <f t="shared" si="0"/>
         <v>0.29944386190966676</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>0.400678586226487</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>2.9851199121948179E-2</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>4.5185428860388309E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.57497257044190664</v>
       </c>
       <c r="B20">
         <v>0.43625290104009473</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <f t="shared" si="0"/>
         <v>0.51144425281337569</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>0.50561273574100074</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>5.91848989307577E-2</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>3.8548935043827948E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.37379987683633831</v>
       </c>
       <c r="B21">
         <v>0.47253999698504434</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <f t="shared" si="0"/>
         <v>0.34844076117165151</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>0.42316993691069132</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>3.8477153638624965E-2</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>4.1755398315879523E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.11934505882645906</v>
       </c>
       <c r="B22">
         <v>0.52894827417336221</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <f t="shared" si="0"/>
         <v>0.13207628032094895</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>0.32414666649991064</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>1.2284803845687064E-2</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>4.6739844283075184E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.40803094375425353</v>
       </c>
       <c r="B23">
         <v>0.47363030166306963</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <f t="shared" si="0"/>
         <v>0.38279819493898892</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>0.44083062270866158</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>4.2000734310085039E-2</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>4.1851741707776682E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.38637872582977123</v>
       </c>
       <c r="B24">
         <v>0.28396754021784443</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <f t="shared" si="0"/>
         <v>0.1998190885810481</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>0.3351731330238078</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>3.9771959590445258E-2</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>2.5092432018938505E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.51936247152228188</v>
       </c>
       <c r="B25">
         <v>0.44069122973941394</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <f t="shared" si="0"/>
         <v>0.45986936288563218</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>0.48002685063084793</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>5.3460663978892341E-2</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>3.8941122337769835E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.44347943369449194</v>
       </c>
       <c r="B26">
         <v>0.36147812143146996</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <f t="shared" si="0"/>
         <v>0.3108802816627752</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>0.40247877756298095</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>4.5649630626562396E-2</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="3"/>
+        <v>3.1941556353217229E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.39466572180157378</v>
       </c>
       <c r="B27">
         <v>0.30960121235137816</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <f t="shared" si="0"/>
         <v>0.22622938138056731</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>0.35213346707647597</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>4.0624982924504081E-2</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="3"/>
+        <v>2.7357518989488086E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0.51062135773875217</v>
       </c>
       <c r="B28">
         <v>0.21281566986214936</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <f t="shared" si="0"/>
         <v>0.2200209613451779</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>0.36171851380045078</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>5.256089595096216E-2</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="3"/>
+        <v>1.8805187115697231E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0.6650180288330062</v>
       </c>
       <c r="B29">
         <v>0.53313070966680587</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <f t="shared" si="0"/>
         <v>0.69390822589942458</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>0.59907436924990609</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>6.8453743442688092E-2</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="3"/>
+        <v>4.7109419897993422E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f>SUM(A1:A29)</f>
+        <v>9.7148526226604446</v>
+      </c>
+      <c r="B31">
+        <f>SUM(B1:B29)</f>
+        <v>11.316860967940848</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31">
+        <f>(-1)*H1*LOG(H1,2)</f>
+        <v>0.10060044337399786</v>
+      </c>
+      <c r="I31">
+        <f>(-1)*I1*LOG(I1,2)</f>
+        <v>8.5699693929307305E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32">
+        <f>(-1)*H2*LOG(H2,2)</f>
+        <v>0.10752299521634559</v>
+      </c>
+      <c r="I32">
+        <f t="shared" ref="I32:I59" si="4">(-1)*I2*LOG(I2,2)</f>
+        <v>0.20889009712162984</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f>SUM(H31:H59)</f>
+        <v>4.7094297380780041</v>
+      </c>
+      <c r="B33">
+        <f>SUM(I31:I59)</f>
+        <v>4.7091513789397377</v>
+      </c>
+      <c r="C33">
+        <f>SUM(A33:B33)</f>
+        <v>9.4185811170177409</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ref="H33:H46" si="5">(-1)*H3*LOG(H3,2)</f>
+        <v>0.21624308498481262</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="4"/>
+        <v>0.20631935819933561</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="5"/>
+        <v>0.22869711281466049</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="4"/>
+        <v>0.21980671143532765</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f>A33/9.418581117</f>
+        <v>0.50001477712792142</v>
+      </c>
+      <c r="B35">
+        <f>1-A35</f>
+        <v>0.49998522287207858</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="5"/>
+        <v>9.7091456132856704E-2</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="4"/>
+        <v>0.14483268317455078</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <f t="shared" si="5"/>
+        <v>9.2462267427270831E-2</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="4"/>
+        <v>0.22909029935156527</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <f t="shared" si="5"/>
+        <v>0.16719524166497676</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="4"/>
+        <v>0.12590623110832466</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <f t="shared" si="5"/>
+        <v>0.21870169150237789</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="4"/>
+        <v>0.19209213801494465</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <f t="shared" si="5"/>
+        <v>0.10648084846824145</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="4"/>
+        <v>0.15020385173380804</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <f t="shared" si="5"/>
+        <v>0.10591804353062992</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="4"/>
+        <v>0.20608294246425293</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <f t="shared" si="5"/>
+        <v>0.1019950807339233</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="4"/>
+        <v>0.1422023021678554</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <f t="shared" si="5"/>
+        <v>0.11276437739771335</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="4"/>
+        <v>1.1669843218976184E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <f t="shared" si="5"/>
+        <v>0.11015433734386988</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="4"/>
+        <v>0.11634873150029</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <f t="shared" si="5"/>
+        <v>0.12183022967119772</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="4"/>
+        <v>0.12023470409589046</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <f t="shared" si="5"/>
+        <v>0.18153585536045616</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="4"/>
+        <v>0.15134722391542887</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <f t="shared" si="5"/>
+        <v>0.19494142089605027</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="4"/>
+        <v>0.27956840927508469</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <f>(-1)*H17*LOG(H17,2)</f>
+        <v>0.13229824962342121</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="4"/>
+        <v>0.11732283916759316</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <f>(-1)*H18*LOG(H18,2)</f>
+        <v>0.1793216238322074</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="4"/>
+        <v>9.7137789272186442E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <f t="shared" ref="H49:H50" si="6">(-1)*H19*LOG(H19,2)</f>
+        <v>0.1512281838597507</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="4"/>
+        <v>0.20188843172343335</v>
+      </c>
+    </row>
+    <row r="50" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <f t="shared" si="6"/>
+        <v>0.24139313101112994</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="4"/>
+        <v>0.18107071561056215</v>
+      </c>
+    </row>
+    <row r="51" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <f>(-1)*H21*LOG(H21,2)</f>
+        <v>0.18083700869297256</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="4"/>
+        <v>0.19131878656200069</v>
+      </c>
+    </row>
+    <row r="52" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <f>(-1)*H22*LOG(H22,2)</f>
+        <v>7.7971421114881451E-2</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="4"/>
+        <v>0.20655287232493466</v>
+      </c>
+    </row>
+    <row r="53" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H53">
+        <f t="shared" ref="H53:H54" si="7">(-1)*H23*LOG(H23,2)</f>
+        <v>0.19208790714716095</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="4"/>
+        <v>0.19162106735643519</v>
+      </c>
+    </row>
+    <row r="54" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H54">
+        <f t="shared" si="7"/>
+        <v>0.18502331390875215</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="4"/>
+        <v>0.13340652150011242</v>
+      </c>
+    </row>
+    <row r="55" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H55">
+        <f>(-1)*H25*LOG(H25,2)</f>
+        <v>0.22589153663726269</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="4"/>
+        <v>0.18234420897268347</v>
+      </c>
+    </row>
+    <row r="56" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H56">
+        <f>(-1)*H26*LOG(H26,2)</f>
+        <v>0.20328935467666498</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="4"/>
+        <v>0.15869911788274224</v>
+      </c>
+    </row>
+    <row r="57" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <f t="shared" ref="H57" si="8">(-1)*H27*LOG(H27,2)</f>
+        <v>0.18774791102583943</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="4"/>
+        <v>0.14203801687207904</v>
+      </c>
+    </row>
+    <row r="58" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H58">
+        <f>(-1)*H28*LOG(H28,2)</f>
+        <v>0.22337678154468399</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="4"/>
+        <v>0.1078049762406601</v>
+      </c>
+    </row>
+    <row r="59" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H59">
+        <f>(-1)*H29*LOG(H29,2)</f>
+        <v>0.26482882848389588</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="4"/>
+        <v>0.20765081474774336</v>
       </c>
     </row>
   </sheetData>

--- a/电力系统脆弱性研究/指标及权重分配/index.xlsx
+++ b/电力系统脆弱性研究/指标及权重分配/index.xlsx
@@ -121,6 +121,996 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$1:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0.16190673470449229</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35996112918177359</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50714923677212953</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55486314065396269</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23852576213258891</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38357301005998445</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.29822610192181648</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4849524298271764</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.25716398142333097</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.35279823327213317</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2398947822643929</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1038265010684538</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.21189552414464757</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.2309173369822434</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.35704028163041568</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.6311131219388606</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.23970879070887555</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.27729703718214738</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.400678586226487</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.50561273574100074</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.42316993691069132</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.32414666649991064</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.44083062270866158</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.3351731330238078</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.48002685063084793</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.40247877756298095</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.35213346707647597</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.36171851380045078</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.59907436924990609</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B832-41D7-988C-B71EEDC79012}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1777982112"/>
+        <c:axId val="1778389872"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1777982112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>节点名称</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1778389872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1778389872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>综合指标值</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1777982112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1310640</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -388,8 +1378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1451,5 +2441,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/电力系统脆弱性研究/指标及权重分配/index.xlsx
+++ b/电力系统脆弱性研究/指标及权重分配/index.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -139,7 +139,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.3937134567752633E-2"/>
+          <c:y val="4.0303461356092932E-2"/>
+          <c:w val="0.90104413462716371"/>
+          <c:h val="0.83664862488043912"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -164,16 +174,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>0.16190673470449229</c:v>
+                  <c:v>0.28596176036303467</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.35996112918177359</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.50714923677212953</c:v>
+                  <c:v>0.51165617612390724</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55486314065396269</c:v>
+                  <c:v>0.46646095989372915</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.23852576213258891</c:v>
@@ -182,13 +192,13 @@
                   <c:v>0.38357301005998445</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.29822610192181648</c:v>
+                  <c:v>0.34898599312985057</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.4849524298271764</c:v>
+                  <c:v>0.3860889603852124</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.25716398142333097</c:v>
+                  <c:v>0.4285444656741576</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.35279823327213317</c:v>
@@ -197,7 +207,7 @@
                   <c:v>0.2398947822643929</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1038265010684538</c:v>
+                  <c:v>0.27320220656237015</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.21189552414464757</c:v>
@@ -206,49 +216,49 @@
                   <c:v>0.2309173369822434</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.35704028163041568</c:v>
+                  <c:v>0.36064853434619781</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.6311131219388606</c:v>
+                  <c:v>0.63096011133289731</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.23970879070887555</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.27729703718214738</c:v>
+                  <c:v>0.36598747456040159</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.400678586226487</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.50561273574100074</c:v>
+                  <c:v>0.32681935814480445</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.42316993691069132</c:v>
+                  <c:v>0.45397853711463609</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.32414666649991064</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.44083062270866158</c:v>
+                  <c:v>0.48925724915098934</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.3351731330238078</c:v>
+                  <c:v>0.34574127907439989</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.48002685063084793</c:v>
+                  <c:v>0.544728399132971</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.40247877756298095</c:v>
+                  <c:v>0.50655878907920038</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.35213346707647597</c:v>
+                  <c:v>0.37768783328754651</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.36171851380045078</c:v>
+                  <c:v>0.43548284552347172</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.59907436924990609</c:v>
+                  <c:v>0.63607069277931783</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -286,20 +296,20 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
+                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:rPr lang="zh-CN"/>
                   <a:t>节点名称</a:t>
                 </a:r>
               </a:p>
@@ -319,15 +329,15 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
+                  <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
@@ -356,15 +366,15 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
+                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
@@ -406,21 +416,21 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
+                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>综合指标值</a:t>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>综合评价指标值</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -439,15 +449,15 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
+                  <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
@@ -471,15 +481,15 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
+                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
@@ -522,7 +532,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1400" b="1" i="0" baseline="0">
+          <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+          <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="zh-CN"/>
     </a:p>
@@ -1082,16 +1095,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1310640</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1127760</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1378,8 +1391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D29"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1393,22 +1406,22 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.16661979727990303</v>
+        <v>0.41472984859698786</v>
       </c>
       <c r="B1">
         <v>0.15719367212908153</v>
       </c>
       <c r="C1" s="1">
         <f>(A1*B1)/((A1*B1)+(1-A1)*(1-B1))</f>
-        <v>3.5949310383642227E-2</v>
+        <v>0.11673645370685801</v>
       </c>
       <c r="D1">
         <f>0.5*A1+0.5*B1</f>
-        <v>0.16190673470449229</v>
+        <v>0.28596176036303467</v>
       </c>
       <c r="H1">
         <f>A1/9.71485262</f>
-        <v>1.7151037056072502E-2</v>
+        <v>4.2690287214772783E-2</v>
       </c>
       <c r="I1">
         <f>B1/11.31686</f>
@@ -1441,22 +1454,22 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.48623767280502772</v>
+        <v>0.49525155150858313</v>
       </c>
       <c r="B3">
         <v>0.52806080073923134</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" si="0"/>
-        <v>0.51432059496375815</v>
+        <v>0.52332478391605119</v>
       </c>
       <c r="D3">
         <f t="shared" si="1"/>
-        <v>0.50714923677212953</v>
+        <v>0.51165617612390724</v>
       </c>
       <c r="H3">
         <f t="shared" si="2"/>
-        <v>5.0050957212053694E-2</v>
+        <v>5.0978802343229282E-2</v>
       </c>
       <c r="I3">
         <f t="shared" si="3"/>
@@ -1465,22 +1478,22 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.52920530035601976</v>
+        <v>0.35240093883555262</v>
       </c>
       <c r="B4">
         <v>0.58052098095190563</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>0.60870375317768666</v>
+        <v>0.42957391403134626</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>0.55486314065396269</v>
+        <v>0.46646095989372915</v>
       </c>
       <c r="H4">
         <f t="shared" si="2"/>
-        <v>5.4473837232130833E-2</v>
+        <v>3.6274450330832979E-2</v>
       </c>
       <c r="I4">
         <f t="shared" si="3"/>
@@ -1537,22 +1550,22 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.33408137377483915</v>
+        <v>0.43560115619090733</v>
       </c>
       <c r="B7">
         <v>0.2623708300687938</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>0.15142536014173547</v>
+        <v>0.21539337674424258</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>0.29822610192181648</v>
+        <v>0.34898599312985057</v>
       </c>
       <c r="H7">
         <f t="shared" si="2"/>
-        <v>3.4388722798230069E-2</v>
+        <v>4.4838678797260778E-2</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
@@ -1561,22 +1574,22 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.49457313593568974</v>
+        <v>0.29684619705176174</v>
       </c>
       <c r="B8">
         <v>0.47533172371866306</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>0.46992096654147564</v>
+        <v>0.27665505261419021</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>0.4849524298271764</v>
+        <v>0.3860889603852124</v>
       </c>
       <c r="H8">
         <f t="shared" si="2"/>
-        <v>5.0908969521319382E-2</v>
+        <v>3.0555913575121402E-2</v>
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
@@ -1585,22 +1598,22 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.17969938464815907</v>
+        <v>0.52246035314981232</v>
       </c>
       <c r="B9">
         <v>0.33462857819850289</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>9.9238924275610443E-2</v>
+        <v>0.35493365128196175</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>0.25716398142333097</v>
+        <v>0.4285444656741576</v>
       </c>
       <c r="H9">
         <f t="shared" si="2"/>
-        <v>1.8497386597323293E-2</v>
+        <v>5.3779544948960048E-2</v>
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
@@ -1657,22 +1670,22 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.19403639534728004</v>
+        <v>0.53278780633511269</v>
       </c>
       <c r="B12">
         <v>1.3616606789627565E-2</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
-        <v>3.3124546667673426E-3</v>
+        <v>1.5498147511597163E-2</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>0.1038265010684538</v>
+        <v>0.27320220656237015</v>
       </c>
       <c r="H12">
         <f t="shared" si="2"/>
-        <v>1.9973169222126608E-2</v>
+        <v>5.4842603091915222E-2</v>
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
@@ -1729,22 +1742,22 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.37588684330244948</v>
+        <v>0.38310334873401375</v>
       </c>
       <c r="B15">
         <v>0.33819371995838193</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="0"/>
-        <v>0.23534044137447632</v>
+        <v>0.24090016071128137</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>0.35704028163041568</v>
+        <v>0.36064853434619781</v>
       </c>
       <c r="H15">
         <f t="shared" si="2"/>
-        <v>3.869197588531708E-2</v>
+        <v>3.9434808094290341E-2</v>
       </c>
       <c r="I15">
         <f t="shared" si="3"/>
@@ -1753,22 +1766,22 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0.41692992652072081</v>
+        <v>0.4166239053087944</v>
       </c>
       <c r="B16">
         <v>0.84529631735700028</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="0"/>
-        <v>0.79621219839341228</v>
+        <v>0.79600784487199916</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>0.6311131219388606</v>
+        <v>0.63096011133289731</v>
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
-        <v>4.2916752608514692E-2</v>
+        <v>4.2885252263229333E-2</v>
       </c>
       <c r="I16">
         <f t="shared" si="3"/>
@@ -1801,22 +1814,22 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0.36929215411824173</v>
+        <v>0.54667302887475011</v>
       </c>
       <c r="B18">
         <v>0.18530192024605308</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="0"/>
-        <v>0.11752433743315756</v>
+        <v>0.21524513062767647</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>0.27729703718214738</v>
+        <v>0.36598747456040159</v>
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
-        <v>3.8013150437092448E-2</v>
+        <v>5.6271880825995498E-2</v>
       </c>
       <c r="I18">
         <f t="shared" si="3"/>
@@ -1849,22 +1862,22 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0.57497257044190664</v>
+        <v>0.21738581524951422</v>
       </c>
       <c r="B20">
         <v>0.43625290104009473</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="0"/>
-        <v>0.51144425281337569</v>
+        <v>0.17692087625884928</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>0.50561273574100074</v>
+        <v>0.32681935814480445</v>
       </c>
       <c r="H20">
         <f t="shared" si="2"/>
-        <v>5.91848989307577E-2</v>
+        <v>2.2376645714828582E-2</v>
       </c>
       <c r="I20">
         <f t="shared" si="3"/>
@@ -1873,22 +1886,22 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>0.37379987683633831</v>
+        <v>0.43541707724422785</v>
       </c>
       <c r="B21">
         <v>0.47253999698504434</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="0"/>
-        <v>0.34844076117165151</v>
+        <v>0.4086054081806913</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>0.42316993691069132</v>
+        <v>0.45397853711463609</v>
       </c>
       <c r="H21">
         <f t="shared" si="2"/>
-        <v>3.8477153638624965E-2</v>
+        <v>4.4819730599703921E-2</v>
       </c>
       <c r="I21">
         <f t="shared" si="3"/>
@@ -1921,22 +1934,22 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>0.40803094375425353</v>
+        <v>0.50488419663890904</v>
       </c>
       <c r="B23">
         <v>0.47363030166306963</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="0"/>
-        <v>0.38279819493898892</v>
+        <v>0.47850342371369387</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>0.44083062270866158</v>
+        <v>0.48925724915098934</v>
       </c>
       <c r="H23">
         <f t="shared" si="2"/>
-        <v>4.2000734310085039E-2</v>
+        <v>5.1970340301354875E-2</v>
       </c>
       <c r="I23">
         <f t="shared" si="3"/>
@@ -1945,22 +1958,22 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0.38637872582977123</v>
+        <v>0.40751501793095535</v>
       </c>
       <c r="B24">
         <v>0.28396754021784443</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="0"/>
-        <v>0.1998190885810481</v>
+        <v>0.21431428420482562</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>0.3351731330238078</v>
+        <v>0.34574127907439989</v>
       </c>
       <c r="H24">
         <f t="shared" si="2"/>
-        <v>3.9771959590445258E-2</v>
+        <v>4.1947627398073214E-2</v>
       </c>
       <c r="I24">
         <f t="shared" si="3"/>
@@ -1969,22 +1982,22 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0.51936247152228188</v>
+        <v>0.64876556852652811</v>
       </c>
       <c r="B25">
         <v>0.44069122973941394</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="0"/>
-        <v>0.45986936288563218</v>
+        <v>0.5927294439801295</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>0.48002685063084793</v>
+        <v>0.544728399132971</v>
       </c>
       <c r="H25">
         <f t="shared" si="2"/>
-        <v>5.3460663978892341E-2</v>
+        <v>6.6780793688101067E-2</v>
       </c>
       <c r="I25">
         <f t="shared" si="3"/>
@@ -1993,22 +2006,22 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0.44347943369449194</v>
+        <v>0.6516394567269308</v>
       </c>
       <c r="B26">
         <v>0.36147812143146996</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="0"/>
-        <v>0.3108802816627752</v>
+        <v>0.51432083676955664</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>0.40247877756298095</v>
+        <v>0.50655878907920038</v>
       </c>
       <c r="H26">
         <f t="shared" si="2"/>
-        <v>4.5649630626562396E-2</v>
+        <v>6.707661785680602E-2</v>
       </c>
       <c r="I26">
         <f t="shared" si="3"/>
@@ -2017,22 +2030,22 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.39466572180157378</v>
+        <v>0.44577445422371487</v>
       </c>
       <c r="B27">
         <v>0.30960121235137816</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="0"/>
-        <v>0.22622938138056731</v>
+        <v>0.26507747644451707</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>0.35213346707647597</v>
+        <v>0.37768783328754651</v>
       </c>
       <c r="H27">
         <f t="shared" si="2"/>
-        <v>4.0624982924504081E-2</v>
+        <v>4.5885868953482373E-2</v>
       </c>
       <c r="I27">
         <f t="shared" si="3"/>
@@ -2041,22 +2054,22 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0.51062135773875217</v>
+        <v>0.65815002118479404</v>
       </c>
       <c r="B28">
         <v>0.21281566986214936</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="0"/>
-        <v>0.2200209613451779</v>
+        <v>0.34231941217063033</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>0.36171851380045078</v>
+        <v>0.43548284552347172</v>
       </c>
       <c r="H28">
         <f t="shared" si="2"/>
-        <v>5.256089595096216E-2</v>
+        <v>6.7746783912074837E-2</v>
       </c>
       <c r="I28">
         <f t="shared" si="3"/>
@@ -2065,22 +2078,22 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.6650180288330062</v>
+        <v>0.73901067589182967</v>
       </c>
       <c r="B29">
         <v>0.53313070966680587</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="0"/>
-        <v>0.69390822589942458</v>
+        <v>0.76378612536794532</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>0.59907436924990609</v>
+        <v>0.63607069277931783</v>
       </c>
       <c r="H29">
         <f t="shared" si="2"/>
-        <v>6.8453743442688092E-2</v>
+        <v>7.6070189101008684E-2</v>
       </c>
       <c r="I29">
         <f t="shared" si="3"/>
@@ -2110,7 +2123,7 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <f>SUM(A1:A29)</f>
-        <v>9.7148526226604446</v>
+        <v>10.99698192632342</v>
       </c>
       <c r="B31">
         <f>SUM(B1:B29)</f>
@@ -2124,7 +2137,7 @@
       </c>
       <c r="H31">
         <f>(-1)*H1*LOG(H1,2)</f>
-        <v>0.10060044337399786</v>
+        <v>0.19423860063114454</v>
       </c>
       <c r="I31">
         <f>(-1)*I1*LOG(I1,2)</f>
@@ -2147,7 +2160,7 @@
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>SUM(H31:H59)</f>
-        <v>4.7094297380780041</v>
+        <v>5.1177845665085497</v>
       </c>
       <c r="B33">
         <f>SUM(I31:I59)</f>
@@ -2155,11 +2168,11 @@
       </c>
       <c r="C33">
         <f>SUM(A33:B33)</f>
-        <v>9.4185811170177409</v>
+        <v>9.8269359454482874</v>
       </c>
       <c r="H33">
         <f t="shared" ref="H33:H46" si="5">(-1)*H3*LOG(H3,2)</f>
-        <v>0.21624308498481262</v>
+        <v>0.21890087232587518</v>
       </c>
       <c r="I33">
         <f t="shared" si="4"/>
@@ -2172,7 +2185,7 @@
       </c>
       <c r="H34">
         <f t="shared" si="5"/>
-        <v>0.22869711281466049</v>
+        <v>0.17356970577328815</v>
       </c>
       <c r="I34">
         <f t="shared" si="4"/>
@@ -2182,11 +2195,11 @@
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <f>A33/9.418581117</f>
-        <v>0.50001477712792142</v>
+        <v>0.54337107712235355</v>
       </c>
       <c r="B35">
         <f>1-A35</f>
-        <v>0.49998522287207858</v>
+        <v>0.45662892287764645</v>
       </c>
       <c r="H35">
         <f t="shared" si="5"/>
@@ -2210,7 +2223,7 @@
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H37">
         <f t="shared" si="5"/>
-        <v>0.16719524166497676</v>
+        <v>0.20083748314267319</v>
       </c>
       <c r="I37">
         <f t="shared" si="4"/>
@@ -2220,7 +2233,7 @@
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H38">
         <f t="shared" si="5"/>
-        <v>0.21870169150237789</v>
+        <v>0.15376971922987487</v>
       </c>
       <c r="I38">
         <f t="shared" si="4"/>
@@ -2230,7 +2243,7 @@
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H39">
         <f t="shared" si="5"/>
-        <v>0.10648084846824145</v>
+        <v>0.22677751209489755</v>
       </c>
       <c r="I39">
         <f t="shared" si="4"/>
@@ -2260,7 +2273,7 @@
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H42">
         <f t="shared" si="5"/>
-        <v>0.11276437739771335</v>
+        <v>0.22971148643294592</v>
       </c>
       <c r="I42">
         <f t="shared" si="4"/>
@@ -2290,7 +2303,7 @@
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H45">
         <f t="shared" si="5"/>
-        <v>0.18153585536045616</v>
+        <v>0.18393918917946914</v>
       </c>
       <c r="I45">
         <f t="shared" si="4"/>
@@ -2300,7 +2313,7 @@
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H46">
         <f t="shared" si="5"/>
-        <v>0.19494142089605027</v>
+        <v>0.194843765106196</v>
       </c>
       <c r="I46">
         <f t="shared" si="4"/>
@@ -2320,7 +2333,7 @@
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H48">
         <f>(-1)*H18*LOG(H18,2)</f>
-        <v>0.1793216238322074</v>
+        <v>0.23360944976541384</v>
       </c>
       <c r="I48">
         <f t="shared" si="4"/>
@@ -2340,7 +2353,7 @@
     <row r="50" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H50">
         <f t="shared" si="6"/>
-        <v>0.24139313101112994</v>
+        <v>0.12266569275795378</v>
       </c>
       <c r="I50">
         <f t="shared" si="4"/>
@@ -2350,7 +2363,7 @@
     <row r="51" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H51">
         <f>(-1)*H21*LOG(H21,2)</f>
-        <v>0.18083700869297256</v>
+        <v>0.20077994272947092</v>
       </c>
       <c r="I51">
         <f t="shared" si="4"/>
@@ -2370,7 +2383,7 @@
     <row r="53" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H53">
         <f t="shared" ref="H53:H54" si="7">(-1)*H23*LOG(H23,2)</f>
-        <v>0.19208790714716095</v>
+        <v>0.22171418631923345</v>
       </c>
       <c r="I53">
         <f t="shared" si="4"/>
@@ -2380,7 +2393,7 @@
     <row r="54" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H54">
         <f t="shared" si="7"/>
-        <v>0.18502331390875215</v>
+        <v>0.19192159440423784</v>
       </c>
       <c r="I54">
         <f t="shared" si="4"/>
@@ -2390,7 +2403,7 @@
     <row r="55" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H55">
         <f>(-1)*H25*LOG(H25,2)</f>
-        <v>0.22589153663726269</v>
+        <v>0.26074046348678936</v>
       </c>
       <c r="I55">
         <f t="shared" si="4"/>
@@ -2400,7 +2413,7 @@
     <row r="56" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H56">
         <f>(-1)*H26*LOG(H26,2)</f>
-        <v>0.20328935467666498</v>
+        <v>0.26146775821218154</v>
       </c>
       <c r="I56">
         <f t="shared" si="4"/>
@@ -2410,7 +2423,7 @@
     <row r="57" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H57">
         <f t="shared" ref="H57" si="8">(-1)*H27*LOG(H27,2)</f>
-        <v>0.18774791102583943</v>
+        <v>0.20399968349311784</v>
       </c>
       <c r="I57">
         <f t="shared" si="4"/>
@@ -2420,7 +2433,7 @@
     <row r="58" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H58">
         <f>(-1)*H28*LOG(H28,2)</f>
-        <v>0.22337678154468399</v>
+        <v>0.26310843734569256</v>
       </c>
       <c r="I58">
         <f t="shared" si="4"/>
@@ -2430,7 +2443,7 @@
     <row r="59" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H59">
         <f>(-1)*H29*LOG(H29,2)</f>
-        <v>0.26482882848389588</v>
+        <v>0.28271675942394675</v>
       </c>
       <c r="I59">
         <f t="shared" si="4"/>

--- a/电力系统脆弱性研究/指标及权重分配/index.xlsx
+++ b/电力系统脆弱性研究/指标及权重分配/index.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13140"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -169,96 +169,96 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$1:$D$29</c:f>
+              <c:f>Sheet1!$H$1:$H$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>0.28596176036303467</c:v>
+                  <c:v>4.2690287214772783E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35996112918177359</c:v>
+                  <c:v>1.8739496369997711E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.51165617612390724</c:v>
+                  <c:v>5.0978802343229282E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.46646095989372915</c:v>
+                  <c:v>3.6274450330832979E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23852576213258891</c:v>
+                  <c:v>1.636365078155641E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.38357301005998445</c:v>
+                  <c:v>1.534324457755136E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.34898599312985057</c:v>
+                  <c:v>4.4838678797260778E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.3860889603852124</c:v>
+                  <c:v>3.0555913575121402E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.4285444656741576</c:v>
+                  <c:v>5.3779544948960048E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.35279823327213317</c:v>
+                  <c:v>1.8367075504429231E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.2398947822643929</c:v>
+                  <c:v>1.7467306849976778E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.27320220656237015</c:v>
+                  <c:v>5.4842603091915222E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.21189552414464757</c:v>
+                  <c:v>1.9355501684594243E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.2309173369822434</c:v>
+                  <c:v>2.2170146668071426E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.36064853434619781</c:v>
+                  <c:v>3.9434808094290341E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.63096011133289731</c:v>
+                  <c:v>4.2885252263229333E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.23970879070887555</c:v>
+                  <c:v>2.4806952906338248E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.36598747456040159</c:v>
+                  <c:v>5.6271880825995498E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.400678586226487</c:v>
+                  <c:v>2.9851199121948179E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.32681935814480445</c:v>
+                  <c:v>2.2376645714828582E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.45397853711463609</c:v>
+                  <c:v>4.4819730599703921E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.32414666649991064</c:v>
+                  <c:v>1.2284803845687064E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.48925724915098934</c:v>
+                  <c:v>5.1970340301354875E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.34574127907439989</c:v>
+                  <c:v>4.1947627398073214E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.544728399132971</c:v>
+                  <c:v>6.6780793688101067E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.50655878907920038</c:v>
+                  <c:v>6.707661785680602E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.37768783328754651</c:v>
+                  <c:v>4.5885868953482373E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.43548284552347172</c:v>
+                  <c:v>6.7746783912074837E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.63607069277931783</c:v>
+                  <c:v>7.6070189101008684E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1095,16 +1095,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1127760</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>784860</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1391,8 +1391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C1:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
